--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Information" sheetId="4" r:id="rId2"/>
+    <sheet name="Sprint 2" sheetId="5" r:id="rId2"/>
+    <sheet name="Information" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Status">Information!$A$15:$A$19</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>No.</t>
   </si>
@@ -33,9 +34,6 @@
   </si>
   <si>
     <t>Create medical profile</t>
-  </si>
-  <si>
-    <t>Basic design</t>
   </si>
   <si>
     <t>Report 1</t>
@@ -156,17 +154,76 @@
     <t>Acceptance criteria</t>
   </si>
   <si>
-    <t>Apply style for the initial project</t>
-  </si>
-  <si>
-    <t>Appy bootstrap as css framework</t>
-  </si>
-  <si>
-    <t>Homepage look nice</t>
-  </si>
-  <si>
     <t>Every member can checkout 
 and run successfully</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In-progress</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kanban: https://trello.com/b/JditEulN/kanban-sprint-1</t>
+    </r>
+  </si>
+  <si>
+    <t>Try to some these information (all metric is in Vietnam):
+Find some popular skin infections, rashes diseases (based on reliable resource).
+Ratio skin infections, rashes diseases / normal diseases
+What is "treatment regimen" (phác đồ điều trị) for each popular diseases.</t>
+  </si>
+  <si>
+    <t>Research about 
+"skin infections, rashes diseases"</t>
+  </si>
+  <si>
+    <t>Research about "chronic diseases"</t>
+  </si>
+  <si>
+    <t>Try to some these information (all metric is in Vietnam):
+Find some popular chronic diseases (based on reliable resource).
+Ratio chronic diseases / normal diseases
+What is "treatment regimen" (phác đồ điều trị) for each popular diseases.</t>
+  </si>
+  <si>
+    <t>Research about other 
+diseases/medical treatment</t>
+  </si>
+  <si>
+    <t>Try to get these information (all metric is in Vietnam):
+What are other diseases that need to go to hospital quite often?
+Can those easily conduct via internet?</t>
+  </si>
+  <si>
+    <t>Report 2</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>As the user, I want to login to the system</t>
+  </si>
+  <si>
+    <t>Login as User/Admin/Doctor</t>
   </si>
   <si>
     <r>
@@ -247,7 +304,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>22 points</t>
+      <t>25 points</t>
     </r>
     <r>
       <rPr>
@@ -273,20 +330,8 @@
     </r>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>In-progress</t>
-  </si>
-  <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>Accept</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Sprint 1
+      <t xml:space="preserve">Sprint 2
 </t>
     </r>
     <r>
@@ -300,12 +345,34 @@
       <t>Kanban: https://trello.com/b/JditEulN/kanban-sprint-1</t>
     </r>
   </si>
+  <si>
+    <t>Usecase Overview</t>
+  </si>
+  <si>
+    <t>As the developer, I want to have a database 
+schema of OMCS</t>
+  </si>
+  <si>
+    <t>Create Entity Relation Diagram</t>
+  </si>
+  <si>
+    <t>Mockups UI</t>
+  </si>
+  <si>
+    <t>Research "Add/Remove element on HTML page"</t>
+  </si>
+  <si>
+    <t>Draft physical database</t>
+  </si>
+  <si>
+    <t>HTML + CSS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +410,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -364,14 +438,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -379,11 +454,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -404,14 +482,45 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -426,8 +535,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H11" totalsRowCount="1" headerRowDxfId="0">
-  <autoFilter ref="A2:H10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A2:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
@@ -445,6 +554,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="0">
+  <autoFilter ref="A2:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table14[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:C10" totalsRowShown="0">
   <autoFilter ref="A6:C10"/>
   <tableColumns count="3">
@@ -743,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,17 +890,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -783,22 +911,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -806,23 +934,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -830,13 +958,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,19 +975,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -864,19 +995,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -887,17 +1021,20 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -905,20 +1042,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -929,53 +1069,129 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
       <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14">
         <f>SUM(Table1[Estimate])</f>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F9">
+  <conditionalFormatting sqref="F3:F13">
     <cfRule type="iconSet" priority="3">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -984,16 +1200,16 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H10">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="H3:H13">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Accept"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H13">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -1009,7 +1225,7 @@
           <x14:formula1>
             <xm:f>Information!$B$7:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F10</xm:sqref>
+          <xm:sqref>F3:F13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1019,10 +1235,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="C8:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table14[Estimate])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="4">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Information!$B$7:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,13 +1471,13 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1049,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1066,16 +1502,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1083,10 +1519,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1094,10 +1530,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1105,40 +1541,40 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -1238,7 +1238,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="C8:D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="5" r:id="rId2"/>
-    <sheet name="Information" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint 3" sheetId="6" r:id="rId3"/>
+    <sheet name="Information" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Status">Information!$A$15:$A$19</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>No.</t>
   </si>
@@ -367,12 +368,45 @@
   <si>
     <t>HTML + CSS</t>
   </si>
+  <si>
+    <t>Implement basic function for mockups</t>
+  </si>
+  <si>
+    <t>Finish report 2</t>
+  </si>
+  <si>
+    <t>Finish custom form for medical profile</t>
+  </si>
+  <si>
+    <t>Use case description</t>
+  </si>
+  <si>
+    <t>Class diagram</t>
+  </si>
+  <si>
+    <t>Fix ERD Diagram</t>
+  </si>
+  <si>
+    <t>Fix Physical Database Diagram</t>
+  </si>
+  <si>
+    <t>Update Usecase Diagram</t>
+  </si>
+  <si>
+    <t>Use case for Patient</t>
+  </si>
+  <si>
+    <t>Usecase for Doctor</t>
+  </si>
+  <si>
+    <t>Usecase for Admin/Authorized User/Guest</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +451,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -438,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -457,27 +497,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -511,18 +563,38 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -535,7 +607,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="8">
   <autoFilter ref="A2:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -554,7 +626,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="6">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -573,6 +645,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H15" totalsRowCount="1" headerRowDxfId="7">
+  <autoFilter ref="A2:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task"/>
+    <tableColumn id="4" name="Description"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table145[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:C10" totalsRowShown="0">
   <autoFilter ref="A6:C10"/>
   <tableColumns count="3">
@@ -1237,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,6 +1391,9 @@
       <c r="C3" t="s">
         <v>60</v>
       </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
       <c r="G3">
         <v>2</v>
       </c>
@@ -1315,6 +1409,9 @@
         <v>61</v>
       </c>
       <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
       <c r="G4">
         <v>2</v>
       </c>
@@ -1330,6 +1427,9 @@
         <v>66</v>
       </c>
       <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1340,6 +1440,9 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1350,6 +1453,9 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1412,10 +1518,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1455,6 +1561,236 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table145[Estimate])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Information!$B$7:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>No.</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Finish custom form for medical profile</t>
   </si>
   <si>
-    <t>Use case description</t>
-  </si>
-  <si>
     <t>Class diagram</t>
   </si>
   <si>
@@ -488,6 +485,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -497,7 +495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,7 +623,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="7">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -645,7 +642,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H15" totalsRowCount="1" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H15" totalsRowCount="1" headerRowDxfId="6">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -964,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,15 +978,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
@@ -1329,7 +1326,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,15 +1342,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
@@ -1564,7 +1561,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,15 +1577,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
@@ -1624,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1635,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1648,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1658,7 +1655,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1668,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1678,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
@@ -1716,7 +1713,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="2"/>
@@ -1724,9 +1721,6 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1807,11 +1801,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="H5" t="s">
         <v>23</v>
       </c>

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="5" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="6" r:id="rId3"/>
-    <sheet name="Information" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint 4" sheetId="7" r:id="rId4"/>
+    <sheet name="Information" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Status">Information!$A$15:$A$19</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
   <si>
     <t>No.</t>
   </si>
@@ -398,6 +399,42 @@
   <si>
     <t>Usecase for Admin/Authorized User/Guest</t>
   </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Manage Doctor</t>
+  </si>
+  <si>
+    <t>Sequence diagram</t>
+  </si>
+  <si>
+    <t>Component Diagram</t>
+  </si>
+  <si>
+    <t>System architecture</t>
+  </si>
+  <si>
+    <t>Manage user</t>
+  </si>
+  <si>
+    <t>Manage doctor</t>
+  </si>
+  <si>
+    <t>Create, Edit, Deactive User, Assign Role for User</t>
+  </si>
+  <si>
+    <t>Add, Edit, Deactive Doctor</t>
+  </si>
+  <si>
+    <t>Manage SpecialtyField</t>
+  </si>
+  <si>
+    <t>Add Specialty, Assign SpecialtyField for Doctor</t>
+  </si>
+  <si>
+    <t>Class diagram Business Logic, Controller</t>
+  </si>
 </sst>
 </file>
 
@@ -475,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -486,6 +523,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -499,34 +539,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -560,21 +602,18 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -593,6 +632,51 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -604,7 +688,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="10">
   <autoFilter ref="A2:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -642,8 +726,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H15" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="A2:H14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H16" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="A2:H15"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
@@ -661,6 +745,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="1">
+  <autoFilter ref="A2:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task"/>
+    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table1456[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:C10" totalsRowShown="0">
   <autoFilter ref="A6:C10"/>
   <tableColumns count="3">
@@ -978,15 +1081,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
@@ -1289,10 +1392,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1342,15 +1445,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
@@ -1515,10 +1618,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1558,10 +1661,279 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f>SUM(Table145[Estimate])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H15">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F15">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H15">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Information!$B$7:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,15 +1949,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
@@ -1621,8 +1993,9 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="G3">
         <v>2</v>
       </c>
@@ -1632,9 +2005,9 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="G4">
         <v>2</v>
@@ -1645,9 +2018,9 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1655,9 +2028,9 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1665,9 +2038,11 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1675,9 +2050,11 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1685,55 +2062,52 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table145[Estimate])</f>
+        <f>SUM(Table1456[Estimate])</f>
         <v>4</v>
       </c>
     </row>
@@ -1742,10 +2116,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1783,7 +2157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I19"/>
   <sheetViews>
@@ -1801,11 +2175,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="H5" t="s">
         <v>23</v>
       </c>

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>No.</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>Class diagram Business Logic, Controller</t>
+  </si>
+  <si>
+    <t>Define new medical profile template
+Update medical profile for patient
+View medical profile
+Request an online medical treatment</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1939,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,14 +2029,16 @@
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -439,7 +439,8 @@
     <t>Define new medical profile template
 Update medical profile for patient
 View medical profile
-Request an online medical treatment</t>
+Request an online medical treatment
+Update Personal Health Record</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1940,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2030,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="5" r:id="rId2"/>
     <sheet name="Sprint 3" sheetId="6" r:id="rId3"/>
     <sheet name="Sprint 4" sheetId="7" r:id="rId4"/>
-    <sheet name="Information" sheetId="4" r:id="rId5"/>
+    <sheet name="Sprint 5" sheetId="8" r:id="rId5"/>
+    <sheet name="Information" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Status">Information!$A$15:$A$19</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="98">
   <si>
     <t>No.</t>
   </si>
@@ -441,6 +442,43 @@
 View medical profile
 Request an online medical treatment
 Update Personal Health Record</t>
+  </si>
+  <si>
+    <t>Create patient style</t>
+  </si>
+  <si>
+    <t>Patient update Personal Health Record</t>
+  </si>
+  <si>
+    <t>Layout Homepage</t>
+  </si>
+  <si>
+    <t>Chatting</t>
+  </si>
+  <si>
+    <t>New medical profile template</t>
+  </si>
+  <si>
+    <t>Update system architecture</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kanban: https://trello.com/b/JditEulN/kanban-sprint-1</t>
+    </r>
+  </si>
+  <si>
+    <t>Class diagram Model</t>
   </si>
 </sst>
 </file>
@@ -546,7 +584,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -695,7 +777,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="14">
   <autoFilter ref="A2:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -714,7 +796,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="11">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -733,7 +815,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H16" totalsRowCount="1" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H16" totalsRowCount="1" headerRowDxfId="8">
   <autoFilter ref="A2:H15"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -752,13 +834,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="5">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="4" name="Description" dataDxfId="4"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -771,6 +853,25 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A2:H15" totalsRowCount="1" headerRowDxfId="1">
+  <autoFilter ref="A2:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task"/>
+    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table14567[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:C10" totalsRowShown="0">
   <autoFilter ref="A6:C10"/>
   <tableColumns count="3">
@@ -1399,10 +1500,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1435,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,6 +1605,9 @@
       <c r="G3">
         <v>2</v>
       </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1522,6 +1626,9 @@
       <c r="G4">
         <v>2</v>
       </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1536,6 +1643,9 @@
       <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1549,6 +1659,9 @@
       <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1625,10 +1738,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1670,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,6 +1852,9 @@
       <c r="G3">
         <v>2</v>
       </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1755,6 +1871,9 @@
       <c r="G4">
         <v>2</v>
       </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1768,6 +1887,9 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1781,6 +1903,9 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1794,6 +1919,9 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1807,6 +1935,9 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1820,6 +1951,9 @@
       <c r="F9" t="s">
         <v>13</v>
       </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1845,6 +1979,9 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1857,6 +1994,9 @@
       <c r="F12" t="s">
         <v>13</v>
       </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1868,6 +2008,9 @@
       <c r="E13" s="2"/>
       <c r="F13" t="s">
         <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1894,10 +2037,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H15">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1939,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,6 +2149,9 @@
       <c r="G3">
         <v>2</v>
       </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2019,16 +2165,22 @@
       <c r="G4">
         <v>2</v>
       </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2041,6 +2193,9 @@
         <v>89</v>
       </c>
       <c r="E6" s="2"/>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2053,6 +2208,9 @@
         <v>84</v>
       </c>
       <c r="E7" s="2"/>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2077,13 +2235,22 @@
         <v>87</v>
       </c>
       <c r="E9" s="2"/>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2117,6 +2284,231 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
         <f>SUM(Table1456[Estimate])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Information!$B$7:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table14567[Estimate])</f>
         <v>4</v>
       </c>
     </row>
@@ -2166,7 +2558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I19"/>
   <sheetViews>

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Sprint 3" sheetId="6" r:id="rId3"/>
     <sheet name="Sprint 4" sheetId="7" r:id="rId4"/>
     <sheet name="Sprint 5" sheetId="8" r:id="rId5"/>
-    <sheet name="Information" sheetId="4" r:id="rId6"/>
+    <sheet name="Sprint 6" sheetId="9" r:id="rId6"/>
+    <sheet name="Information" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Status">Information!$A$15:$A$19</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
   <si>
     <t>No.</t>
   </si>
@@ -479,6 +480,37 @@
   </si>
   <si>
     <t>Class diagram Model</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kanban: https://trello.com/b/JditEulN/kanban-sprint-1</t>
+    </r>
+  </si>
+  <si>
+    <t>Finish Chatting</t>
+  </si>
+  <si>
+    <t>Doctor create medical profile for patient</t>
+  </si>
+  <si>
+    <t>Let user show webcam on conversation</t>
+  </si>
+  <si>
+    <t>Show Conversation List for Patient</t>
+  </si>
+  <si>
+    <t>Manage FilmType</t>
   </si>
 </sst>
 </file>
@@ -584,7 +616,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -777,7 +853,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="18">
   <autoFilter ref="A2:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -796,7 +872,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="15">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -815,7 +891,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H16" totalsRowCount="1" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H16" totalsRowCount="1" headerRowDxfId="12">
   <autoFilter ref="A2:H15"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -834,13 +910,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="9">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="4"/>
+    <tableColumn id="4" name="Description" dataDxfId="8"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -853,13 +929,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A2:H15" totalsRowCount="1" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A2:H15" totalsRowCount="1" headerRowDxfId="5">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="4" name="Description" dataDxfId="4"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -872,6 +948,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A2:H15" totalsRowCount="1" headerRowDxfId="1">
+  <autoFilter ref="A2:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task"/>
+    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table145678[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:C10" totalsRowShown="0">
   <autoFilter ref="A6:C10"/>
   <tableColumns count="3">
@@ -1500,10 +1595,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1738,10 +1833,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2037,10 +2132,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H15">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2082,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,6 +2379,291 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
         <f>SUM(Table1456[Estimate])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Information!$B$7:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table14567[Estimate])</f>
         <v>4</v>
       </c>
     </row>
@@ -2333,12 +2713,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,7 +2735,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2398,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5"/>
       <c r="G3">
@@ -2410,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
@@ -2423,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -2433,7 +2813,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -2443,7 +2823,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
@@ -2452,21 +2832,13 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
@@ -2508,7 +2880,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table14567[Estimate])</f>
+        <f>SUM(Table145678[Estimate])</f>
         <v>4</v>
       </c>
     </row>
@@ -2558,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I19"/>
   <sheetViews>

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Sprint 4" sheetId="7" r:id="rId4"/>
     <sheet name="Sprint 5" sheetId="8" r:id="rId5"/>
     <sheet name="Sprint 6" sheetId="9" r:id="rId6"/>
-    <sheet name="Information" sheetId="4" r:id="rId7"/>
+    <sheet name="Sprint 7" sheetId="10" r:id="rId7"/>
+    <sheet name="Information" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Status">Information!$A$15:$A$19</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="113">
   <si>
     <t>No.</t>
   </si>
@@ -511,6 +512,33 @@
   </si>
   <si>
     <t>Manage FilmType</t>
+  </si>
+  <si>
+    <t>Show Allergy List on UserHealthRecord page</t>
+  </si>
+  <si>
+    <t>Add modules Immunization to MedicalProfile</t>
+  </si>
+  <si>
+    <t>Add modules FilmDocument to MedicalProfile</t>
+  </si>
+  <si>
+    <t>Add modules Allergy to MedicalProfile</t>
+  </si>
+  <si>
+    <t>Add captcha for register user</t>
+  </si>
+  <si>
+    <t>Show Immunization List on UserHealthRecord page</t>
+  </si>
+  <si>
+    <t>Show list medical profile on patient page</t>
+  </si>
+  <si>
+    <t>Add attachment in chatting</t>
+  </si>
+  <si>
+    <t>Update sequence diagram</t>
   </si>
 </sst>
 </file>
@@ -616,7 +644,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -853,7 +925,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="22">
   <autoFilter ref="A2:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -872,7 +944,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="19">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -891,7 +963,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H16" totalsRowCount="1" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H16" totalsRowCount="1" headerRowDxfId="16">
   <autoFilter ref="A2:H15"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -910,13 +982,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="13">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" name="Description" dataDxfId="12"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -929,13 +1001,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A2:H15" totalsRowCount="1" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A2:H15" totalsRowCount="1" headerRowDxfId="9">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="4"/>
+    <tableColumn id="4" name="Description" dataDxfId="8"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -948,13 +1020,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A2:H15" totalsRowCount="1" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A2:H15" totalsRowCount="1" headerRowDxfId="5">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="4" name="Description" dataDxfId="4"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -967,6 +1039,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1456789" displayName="Table1456789" ref="A2:H15" totalsRowCount="1" headerRowDxfId="1">
+  <autoFilter ref="A2:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task"/>
+    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table1456789[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:C10" totalsRowShown="0">
   <autoFilter ref="A6:C10"/>
   <tableColumns count="3">
@@ -1595,10 +1686,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1833,10 +1924,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2132,10 +2223,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H15">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2178,7 +2269,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,6 +2332,9 @@
         <v>81</v>
       </c>
       <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
       <c r="G3">
         <v>2</v>
       </c>
@@ -2257,6 +2351,9 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
       <c r="G4">
         <v>2</v>
       </c>
@@ -2273,6 +2370,9 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
@@ -2303,6 +2403,9 @@
         <v>84</v>
       </c>
       <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
@@ -2318,6 +2421,9 @@
         <v>85</v>
       </c>
       <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2330,6 +2436,9 @@
         <v>87</v>
       </c>
       <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
         <v>46</v>
       </c>
@@ -2343,6 +2452,9 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
         <v>46</v>
       </c>
@@ -2387,10 +2499,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2672,6 +2784,256 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Information!$B$7:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table145678[Estimate])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
@@ -2713,12 +3075,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,32 +3140,26 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="G3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
-      <c r="G4">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -2813,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -2823,7 +3179,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
@@ -2832,6 +3188,9 @@
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
@@ -2839,6 +3198,9 @@
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
@@ -2846,6 +3208,9 @@
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
     </row>
@@ -2853,6 +3218,9 @@
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
@@ -2880,8 +3248,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table145678[Estimate])</f>
-        <v>4</v>
+        <f>SUM(Table1456789[Estimate])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2930,7 +3298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I19"/>
   <sheetViews>

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,11 @@
     <sheet name="Sprint 5" sheetId="8" r:id="rId5"/>
     <sheet name="Sprint 6" sheetId="9" r:id="rId6"/>
     <sheet name="Sprint 7" sheetId="10" r:id="rId7"/>
-    <sheet name="Information" sheetId="4" r:id="rId8"/>
+    <sheet name="Sprint 8" sheetId="11" r:id="rId8"/>
+    <sheet name="Sprint 9" sheetId="12" r:id="rId9"/>
+    <sheet name="Sprint 10" sheetId="13" r:id="rId10"/>
+    <sheet name="Sprint 11" sheetId="14" r:id="rId11"/>
+    <sheet name="Information" sheetId="4" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Status">Information!$A$15:$A$19</definedName>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="171">
   <si>
     <t>No.</t>
   </si>
@@ -539,6 +543,631 @@
   </si>
   <si>
     <t>Update sequence diagram</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20 May</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 27 May</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>27 May</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 05 Jun</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19 Jun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 03 Jul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12 Jun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 19 Jun</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05 Jun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12 Jun</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03 Jul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 09 Jul</t>
+    </r>
+  </si>
+  <si>
+    <t>Show list medical profile in patient page</t>
+  </si>
+  <si>
+    <t>Fix layout</t>
+  </si>
+  <si>
+    <t>Update usecase diagram</t>
+  </si>
+  <si>
+    <t>Define some REAL medical profile template to use</t>
+  </si>
+  <si>
+    <t>Finish show webcam</t>
+  </si>
+  <si>
+    <t>Doctor can see the stream from patient</t>
+  </si>
+  <si>
+    <t>Change layout homepage + login</t>
+  </si>
+  <si>
+    <t>Profile picture chỉ lưu tên ảnh + GetPictureUrl</t>
+  </si>
+  <si>
+    <t>Manage allergy type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 7
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kanban: https://trello.com/b/JditEulN/kanban-sprint-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kanban: https://trello.com/b/lnBdUvYc/sprint-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 9
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kanban: https://trello.com/b/reAEHfJG/sprint-9</t>
+    </r>
+  </si>
+  <si>
+    <t>Patient Vote/Comment</t>
+  </si>
+  <si>
+    <t>Manage Medical Profile for Admin/Doctor</t>
+  </si>
+  <si>
+    <t>Forget password</t>
+  </si>
+  <si>
+    <t>Finish register</t>
+  </si>
+  <si>
+    <t>Update ERD</t>
+  </si>
+  <si>
+    <t>Doctor add/edit new patient with personal health record</t>
+  </si>
+  <si>
+    <t>Report 5</t>
+  </si>
+  <si>
+    <t>Refactor all linked information in personal health record</t>
+  </si>
+  <si>
+    <t>Edit hospital information</t>
+  </si>
+  <si>
+    <t>Use email as username to login</t>
+  </si>
+  <si>
+    <t>Add 404 page, Access denied page</t>
+  </si>
+  <si>
+    <t>Patient vote/comment doctor</t>
+  </si>
+  <si>
+    <t>Measure performance using Jmeter</t>
+  </si>
+  <si>
+    <t>Fix bug manage Doctor. Can update Specialty Field for doctor</t>
+  </si>
+  <si>
+    <t>Finish report 5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://trello.com/b/t0qVHCTb/sprint-10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 11
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://trello.com/b/ixZwjrKr/sprint-11</t>
+    </r>
+  </si>
+  <si>
+    <t>Change layout admin</t>
+  </si>
+  <si>
+    <t>Change layout doctor</t>
+  </si>
+  <si>
+    <t>Update layout (Scrollbar, Message info when ajax)</t>
+  </si>
+  <si>
+    <t>Doctor See Comment and Rating from Patient</t>
+  </si>
+  <si>
+    <t>Admin manage hospital Information</t>
+  </si>
+  <si>
+    <t>Admin Manage Comment</t>
+  </si>
+  <si>
+    <t>Admin/Doctor/Patient can edit profile</t>
+  </si>
+  <si>
+    <t>Ajax upload image</t>
+  </si>
+  <si>
+    <t>Create sprint backlog, product backlog</t>
+  </si>
+  <si>
+    <t>Update meeting minutes</t>
+  </si>
+  <si>
+    <t>Create document about user interface</t>
+  </si>
+  <si>
+    <t>Create task sheet</t>
+  </si>
+  <si>
+    <t>Define report 6 struture</t>
+  </si>
+  <si>
+    <t>Final Report</t>
+  </si>
+  <si>
+    <t>Show hospital information on Medical Profile page</t>
+  </si>
+  <si>
+    <t>Merge Use case (report 3)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kanban: https://trello.com/b/JditEulN/kanban-sprint-1</t>
+    </r>
+  </si>
+  <si>
+    <t>Finish report 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kanban: https://trello.com/b/JditEulN/kanban-sprint-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>09 Jul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 17 Jul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17 Jul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 24 Jul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24 Jul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 31 Jul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31 Jul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0? Jul</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -617,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -640,40 +1269,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="43">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -703,6 +1445,9 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -720,18 +1465,7 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -764,20 +1498,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -808,18 +1528,17 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -839,18 +1558,17 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -870,18 +1588,17 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -901,18 +1618,115 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -925,7 +1739,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="42">
   <autoFilter ref="A2:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -943,8 +1757,58 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1456789101112" displayName="Table1456789101112" ref="A2:H15" totalsRowCount="1" headerRowDxfId="27">
+  <autoFilter ref="A2:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task" dataDxfId="25"/>
+    <tableColumn id="4" name="Description" dataDxfId="26"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table1456789101112[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table145678910111213" displayName="Table145678910111213" ref="A2:H21" totalsRowCount="1" headerRowDxfId="24">
+  <autoFilter ref="A2:H20"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task" dataDxfId="23"/>
+    <tableColumn id="4" name="Description" dataDxfId="22"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table145678910111213[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:C10" totalsRowShown="0">
+  <autoFilter ref="A6:C10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="2" name="Short Name"/>
+    <tableColumn id="3" name="Fullname"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="41">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -963,8 +1827,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H16" totalsRowCount="1" headerRowDxfId="16">
-  <autoFilter ref="A2:H15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H17" totalsRowCount="1" headerRowDxfId="40">
+  <autoFilter ref="A2:H16"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
@@ -982,13 +1846,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="39">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="12"/>
+    <tableColumn id="4" name="Description" dataDxfId="38"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -1001,13 +1865,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A2:H15" totalsRowCount="1" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A2:H15" totalsRowCount="1" headerRowDxfId="37">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" name="Description" dataDxfId="36"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -1020,13 +1884,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A2:H15" totalsRowCount="1" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A2:H15" totalsRowCount="1" headerRowDxfId="35">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="4"/>
+    <tableColumn id="4" name="Description" dataDxfId="34"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -1039,13 +1903,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1456789" displayName="Table1456789" ref="A2:H15" totalsRowCount="1" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1456789" displayName="Table1456789" ref="A2:H15" totalsRowCount="1" headerRowDxfId="33">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="4" name="Description" dataDxfId="32"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -1058,12 +1922,38 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:C10" totalsRowShown="0">
-  <autoFilter ref="A6:C10"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table145678910" displayName="Table145678910" ref="A2:H15" totalsRowCount="1" headerRowDxfId="31">
+  <autoFilter ref="A2:H14"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="No."/>
-    <tableColumn id="2" name="Short Name"/>
-    <tableColumn id="3" name="Fullname"/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task"/>
+    <tableColumn id="4" name="Description" dataDxfId="30"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table145678910[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14567891011" displayName="Table14567891011" ref="A2:H15" totalsRowCount="1" headerRowDxfId="29">
+  <autoFilter ref="A2:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task"/>
+    <tableColumn id="4" name="Description" dataDxfId="28"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table14567891011[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1358,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,10 +2576,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1718,12 +2608,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,9 +2628,9 @@
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1749,7 +2639,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1759,7 +2649,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1782,121 +2672,95 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="C4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="C5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1904,19 +2768,21 @@
         <v>11</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table14[Estimate])</f>
-        <v>4</v>
+        <f>SUM(Table1456789101112[Estimate])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1924,10 +2790,673 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Information!$B$7:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f>SUM(Table145678910111213[Estimate])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H20">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Information!$B$7:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table14[Estimate])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1967,10 +3496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,9 +3514,9 @@
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1996,7 +3525,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2203,17 +3732,24 @@
       <c r="A14">
         <v>11</v>
       </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17">
         <f>SUM(Table145[Estimate])</f>
         <v>4</v>
       </c>
@@ -2222,15 +3758,15 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H15">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+  <conditionalFormatting sqref="H3:H16">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F15">
+  <conditionalFormatting sqref="F3:F16">
     <cfRule type="iconSet" priority="3">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -2240,7 +3776,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H16">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -2256,7 +3792,7 @@
           <x14:formula1>
             <xm:f>Information!$B$7:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F15</xm:sqref>
+          <xm:sqref>F3:F16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2269,7 +3805,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,9 +3820,9 @@
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2295,7 +3831,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2462,6 +3998,9 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -2544,8 +4083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,7 +4099,7 @@
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>96</v>
       </c>
@@ -2571,7 +4110,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2776,6 +4315,256 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
         <f>SUM(Table14567[Estimate])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Information!$B$7:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table145678[Estimate])</f>
         <v>4</v>
       </c>
     </row>
@@ -2825,12 +4614,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,9 +4634,9 @@
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2856,7 +4645,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2890,44 +4679,26 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -2937,53 +4708,38 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
@@ -2991,6 +4747,9 @@
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
     </row>
@@ -2998,6 +4757,9 @@
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
@@ -3025,8 +4787,233 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table145678[Estimate])</f>
+        <f>SUM(Table1456789[Estimate])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Information!$B$7:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table145678910[Estimate])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3075,12 +5062,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,9 +5082,9 @@
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3106,7 +5093,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3140,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -3149,7 +5136,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
@@ -3159,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -3169,7 +5156,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -3179,7 +5166,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
@@ -3189,9 +5176,11 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3199,7 +5188,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
@@ -3209,7 +5198,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
@@ -3219,7 +5208,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -3248,7 +5237,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table1456789[Estimate])</f>
+        <f>SUM(Table14567891011[Estimate])</f>
         <v>0</v>
       </c>
     </row>
@@ -3257,10 +5246,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3296,139 +5285,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:C5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Sprint 9" sheetId="12" r:id="rId9"/>
     <sheet name="Sprint 10" sheetId="13" r:id="rId10"/>
     <sheet name="Sprint 11" sheetId="14" r:id="rId11"/>
-    <sheet name="Information" sheetId="4" r:id="rId12"/>
+    <sheet name="Sprint 12" sheetId="15" r:id="rId12"/>
+    <sheet name="Information" sheetId="4" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="Status">Information!$A$15:$A$19</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="171">
   <si>
     <t>No.</t>
   </si>
@@ -959,19 +960,10 @@
     <t>Ajax upload image</t>
   </si>
   <si>
-    <t>Create sprint backlog, product backlog</t>
-  </si>
-  <si>
-    <t>Update meeting minutes</t>
-  </si>
-  <si>
     <t>Create document about user interface</t>
   </si>
   <si>
     <t>Create task sheet</t>
-  </si>
-  <si>
-    <t>Define report 6 struture</t>
   </si>
   <si>
     <t>Final Report</t>
@@ -1132,6 +1124,9 @@
     </r>
   </si>
   <si>
+    <t>Report 6</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Start date: </t>
     </r>
@@ -1166,7 +1161,61 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 0? Jul</t>
+      <t xml:space="preserve"> 12 Aug</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 12
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://trello.com/b/ixZwjrKr/sprint-11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start date: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12 Aug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+End date:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ? Aug</t>
     </r>
   </si>
 </sst>
@@ -1260,6 +1309,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1269,14 +1321,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1465,7 +1561,37 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1649,13 +1775,17 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1694,40 +1824,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1739,7 +1835,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="47">
   <autoFilter ref="A2:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -1758,13 +1854,13 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1456789101112" displayName="Table1456789101112" ref="A2:H15" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1456789101112" displayName="Table1456789101112" ref="A2:H15" totalsRowCount="1" headerRowDxfId="32">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
-    <tableColumn id="7" name="Task" dataDxfId="25"/>
-    <tableColumn id="4" name="Description" dataDxfId="26"/>
+    <tableColumn id="7" name="Task" dataDxfId="31"/>
+    <tableColumn id="4" name="Description" dataDxfId="30"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -1777,13 +1873,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table145678910111213" displayName="Table145678910111213" ref="A2:H21" totalsRowCount="1" headerRowDxfId="24">
-  <autoFilter ref="A2:H20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table145678910111213" displayName="Table145678910111213" ref="A2:H19" totalsRowCount="1" headerRowDxfId="29">
+  <autoFilter ref="A2:H18"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
-    <tableColumn id="7" name="Task" dataDxfId="23"/>
-    <tableColumn id="4" name="Description" dataDxfId="22"/>
+    <tableColumn id="7" name="Task" dataDxfId="28"/>
+    <tableColumn id="4" name="Description" dataDxfId="27"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -1796,6 +1892,25 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14567891011121314" displayName="Table14567891011121314" ref="A2:H19" totalsRowCount="1" headerRowDxfId="2">
+  <autoFilter ref="A2:H18"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task" dataDxfId="1"/>
+    <tableColumn id="4" name="Description" dataDxfId="0"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table14567891011121314[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:C10" totalsRowShown="0">
   <autoFilter ref="A6:C10"/>
   <tableColumns count="3">
@@ -1808,7 +1923,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="46">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -1827,7 +1942,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H17" totalsRowCount="1" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H17" totalsRowCount="1" headerRowDxfId="45">
   <autoFilter ref="A2:H16"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -1846,13 +1961,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="44">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="38"/>
+    <tableColumn id="4" name="Description" dataDxfId="43"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -1865,13 +1980,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A2:H15" totalsRowCount="1" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A2:H15" totalsRowCount="1" headerRowDxfId="42">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="36"/>
+    <tableColumn id="4" name="Description" dataDxfId="41"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -1884,13 +1999,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A2:H15" totalsRowCount="1" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A2:H15" totalsRowCount="1" headerRowDxfId="40">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="34"/>
+    <tableColumn id="4" name="Description" dataDxfId="39"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -1903,13 +2018,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1456789" displayName="Table1456789" ref="A2:H15" totalsRowCount="1" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1456789" displayName="Table1456789" ref="A2:H15" totalsRowCount="1" headerRowDxfId="38">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="32"/>
+    <tableColumn id="4" name="Description" dataDxfId="37"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -1922,13 +2037,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table145678910" displayName="Table145678910" ref="A2:H15" totalsRowCount="1" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table145678910" displayName="Table145678910" ref="A2:H15" totalsRowCount="1" headerRowDxfId="36">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" name="Description" dataDxfId="35"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -1941,13 +2056,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14567891011" displayName="Table14567891011" ref="A2:H15" totalsRowCount="1" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14567891011" displayName="Table14567891011" ref="A2:H15" totalsRowCount="1" headerRowDxfId="34">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="28"/>
+    <tableColumn id="4" name="Description" dataDxfId="33"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -2265,15 +2380,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
@@ -2576,10 +2691,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2612,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,17 +2744,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2649,7 +2764,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2790,10 +2905,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2833,10 +2948,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,17 +2967,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2872,7 +2987,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2977,17 +3092,17 @@
       <c r="C11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2995,7 +3110,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
@@ -3005,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
@@ -3015,7 +3130,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="2"/>
@@ -3025,43 +3140,23 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>112</v>
-      </c>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
       <c r="D17" s="6"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="6"/>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G21">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G19">
         <f>SUM(Table145678910111213[Estimate])</f>
         <v>0</v>
       </c>
@@ -3070,16 +3165,16 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20">
-    <cfRule type="iconSet" priority="3">
+  <conditionalFormatting sqref="F3:F18">
+    <cfRule type="iconSet" priority="14">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -3088,7 +3183,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H18">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
@@ -3104,7 +3199,7 @@
           <x14:formula1>
             <xm:f>Information!$B$7:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F20</xm:sqref>
+          <xm:sqref>F3:F18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3113,6 +3208,197 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f>SUM(Table14567891011121314[Estimate])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F18">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H18">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Information!$B$7:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I19"/>
   <sheetViews>
@@ -3130,11 +3416,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="H5" t="s">
         <v>23</v>
       </c>
@@ -3268,15 +3554,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
         <v>113</v>
       </c>
@@ -3453,10 +3739,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3515,15 +3801,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
         <v>114</v>
       </c>
@@ -3733,7 +4019,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3759,10 +4045,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H16">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3821,15 +4107,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
         <v>117</v>
       </c>
@@ -4000,7 +4286,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -4038,10 +4324,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4100,15 +4386,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
         <v>116</v>
       </c>
@@ -4323,10 +4609,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4385,15 +4671,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
         <v>115</v>
       </c>
@@ -4573,10 +4859,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4635,15 +4921,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
         <v>118</v>
       </c>
@@ -4796,10 +5082,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4858,17 +5144,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5021,10 +5307,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5083,17 +5369,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5246,10 +5532,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="178">
   <si>
     <t>No.</t>
   </si>
@@ -1124,9 +1124,6 @@
     </r>
   </si>
   <si>
-    <t>Report 6</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Start date: </t>
     </r>
@@ -1161,24 +1158,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 12 Aug</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sprint 12
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://trello.com/b/ixZwjrKr/sprint-11</t>
-    </r>
+      <t xml:space="preserve"> 7 Jul</t>
+    </r>
+  </si>
+  <si>
+    <t>Create sprint backlog, product backlog</t>
+  </si>
+  <si>
+    <t>Update meeting minutes</t>
+  </si>
+  <si>
+    <t>Define report 6 struture</t>
   </si>
   <si>
     <r>
@@ -1193,7 +1183,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>12 Aug</t>
+      <t>7 Jul</t>
     </r>
     <r>
       <rPr>
@@ -1215,7 +1205,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ? Aug</t>
+      <t xml:space="preserve"> 14 Jul</t>
+    </r>
+  </si>
+  <si>
+    <t>Create slide demo</t>
+  </si>
+  <si>
+    <t>Add usecase upload attachment</t>
+  </si>
+  <si>
+    <t>Add user case Update personal health record</t>
+  </si>
+  <si>
+    <t>Class diagram for controller, business</t>
+  </si>
+  <si>
+    <t>Show conversation history</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sprint 12
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://trello.com/b/o8gjeeOT/sprint-12</t>
     </r>
   </si>
 </sst>
@@ -1325,7 +1346,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="96">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1388,146 +1409,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1561,6 +1442,34 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1594,6 +1503,34 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1624,6 +1561,34 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1654,6 +1619,34 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1684,6 +1677,34 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1714,6 +1735,34 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1744,6 +1793,34 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1774,6 +1851,34 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1791,6 +1896,34 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1808,6 +1941,34 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1824,6 +1985,202 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1835,7 +2192,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table115" displayName="Table115" ref="A2:H14" totalsRowCount="1" headerRowDxfId="67">
   <autoFilter ref="A2:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -1845,7 +2202,7 @@
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table1[Estimate])</totalsRowFormula>
+      <totalsRowFormula>SUM(Table115[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
@@ -1854,17 +2211,17 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1456789101112" displayName="Table1456789101112" ref="A2:H15" totalsRowCount="1" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table145678910111224" displayName="Table145678910111224" ref="A2:H15" totalsRowCount="1" headerRowDxfId="16">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
-    <tableColumn id="7" name="Task" dataDxfId="31"/>
-    <tableColumn id="4" name="Description" dataDxfId="30"/>
+    <tableColumn id="7" name="Task" dataDxfId="15"/>
+    <tableColumn id="4" name="Description" dataDxfId="14"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table1456789101112[Estimate])</totalsRowFormula>
+      <totalsRowFormula>SUM(Table145678910111224[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
@@ -1873,17 +2230,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table145678910111213" displayName="Table145678910111213" ref="A2:H19" totalsRowCount="1" headerRowDxfId="29">
-  <autoFilter ref="A2:H18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table14567891011121325" displayName="Table14567891011121325" ref="A2:H21" totalsRowCount="1" headerRowDxfId="9">
+  <autoFilter ref="A2:H20"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
-    <tableColumn id="7" name="Task" dataDxfId="28"/>
-    <tableColumn id="4" name="Description" dataDxfId="27"/>
+    <tableColumn id="7" name="Task" dataDxfId="8"/>
+    <tableColumn id="4" name="Description" dataDxfId="7"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table145678910111213[Estimate])</totalsRowFormula>
+      <totalsRowFormula>SUM(Table14567891011121325[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
@@ -1892,8 +2249,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table14567891011121314" displayName="Table14567891011121314" ref="A2:H19" totalsRowCount="1" headerRowDxfId="2">
-  <autoFilter ref="A2:H18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table1456789101112131426" displayName="Table1456789101112131426" ref="A2:H21" totalsRowCount="1" headerRowDxfId="2">
+  <autoFilter ref="A2:H20"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
@@ -1902,7 +2259,7 @@
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table14567891011121314[Estimate])</totalsRowFormula>
+      <totalsRowFormula>SUM(Table1456789101112131426[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
@@ -1923,7 +2280,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A2:H15" totalsRowCount="1" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1416" displayName="Table1416" ref="A2:H15" totalsRowCount="1" headerRowDxfId="62">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -1933,7 +2290,7 @@
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table14[Estimate])</totalsRowFormula>
+      <totalsRowFormula>SUM(Table1416[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
@@ -1942,7 +2299,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A2:H17" totalsRowCount="1" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table14517" displayName="Table14517" ref="A2:H17" totalsRowCount="1" headerRowDxfId="57">
   <autoFilter ref="A2:H16"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -1952,7 +2309,7 @@
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table145[Estimate])</totalsRowFormula>
+      <totalsRowFormula>SUM(Table14517[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
@@ -1961,17 +2318,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A2:H15" totalsRowCount="1" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table145618" displayName="Table145618" ref="A2:H15" totalsRowCount="1" headerRowDxfId="52">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="43"/>
+    <tableColumn id="4" name="Description" dataDxfId="51"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table1456[Estimate])</totalsRowFormula>
+      <totalsRowFormula>SUM(Table145618[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
@@ -1980,17 +2337,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table14567" displayName="Table14567" ref="A2:H15" totalsRowCount="1" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table1456719" displayName="Table1456719" ref="A2:H15" totalsRowCount="1" headerRowDxfId="46">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="41"/>
+    <tableColumn id="4" name="Description" dataDxfId="45"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table14567[Estimate])</totalsRowFormula>
+      <totalsRowFormula>SUM(Table1456719[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
@@ -1999,7 +2356,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table145678" displayName="Table145678" ref="A2:H15" totalsRowCount="1" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table14567820" displayName="Table14567820" ref="A2:H15" totalsRowCount="1" headerRowDxfId="40">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -2009,7 +2366,7 @@
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table145678[Estimate])</totalsRowFormula>
+      <totalsRowFormula>SUM(Table14567820[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
@@ -2018,45 +2375,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table1456789" displayName="Table1456789" ref="A2:H15" totalsRowCount="1" headerRowDxfId="38">
-  <autoFilter ref="A2:H14"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="No."/>
-    <tableColumn id="3" name="Userstory"/>
-    <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="37"/>
-    <tableColumn id="8" name="Acceptance criteria"/>
-    <tableColumn id="2" name="Assign"/>
-    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table1456789[Estimate])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" name="Status"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table145678910" displayName="Table145678910" ref="A2:H15" totalsRowCount="1" headerRowDxfId="36">
-  <autoFilter ref="A2:H14"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="No."/>
-    <tableColumn id="3" name="Userstory"/>
-    <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="35"/>
-    <tableColumn id="8" name="Acceptance criteria"/>
-    <tableColumn id="2" name="Assign"/>
-    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table145678910[Estimate])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" name="Status"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table14567891011" displayName="Table14567891011" ref="A2:H15" totalsRowCount="1" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table145678921" displayName="Table145678921" ref="A2:H15" totalsRowCount="1" headerRowDxfId="34">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -2066,7 +2385,45 @@
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table14567891011[Estimate])</totalsRowFormula>
+      <totalsRowFormula>SUM(Table145678921[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table14567891022" displayName="Table14567891022" ref="A2:H15" totalsRowCount="1" headerRowDxfId="28">
+  <autoFilter ref="A2:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task"/>
+    <tableColumn id="4" name="Description" dataDxfId="27"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table14567891022[Estimate])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table1456789101123" displayName="Table1456789101123" ref="A2:H15" totalsRowCount="1" headerRowDxfId="22">
+  <autoFilter ref="A2:H14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No."/>
+    <tableColumn id="3" name="Userstory"/>
+    <tableColumn id="7" name="Task"/>
+    <tableColumn id="4" name="Description" dataDxfId="21"/>
+    <tableColumn id="8" name="Acceptance criteria"/>
+    <tableColumn id="2" name="Assign"/>
+    <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table1456789101123[Estimate])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
@@ -2364,7 +2721,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -2542,13 +2899,13 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2566,13 +2923,13 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -2596,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -2614,13 +2971,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -2638,13 +2995,13 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2668,12 +3025,12 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G14">
-        <f>SUM(Table1[Estimate])</f>
+        <f>SUM(Table115[Estimate])</f>
         <v>25</v>
       </c>
     </row>
@@ -2691,10 +3048,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2713,7 +3070,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
+            <xm:f>[1]Information!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F13</xm:sqref>
         </x14:dataValidation>
@@ -2728,7 +3085,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,6 +3148,12 @@
         <v>139</v>
       </c>
       <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2798,1387 +3161,12 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <f>SUM(Table1456789101112[Estimate])</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>"Accept"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F14">
-    <cfRule type="iconSet" priority="3">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="#REF!"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <f>SUM(Table145678910111213[Estimate])</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H18">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"Accept"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F18">
-    <cfRule type="iconSet" priority="14">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="#REF!"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H18">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F18</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <f>SUM(Table14567891011121314[Estimate])</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H18">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"Accept"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F18">
-    <cfRule type="iconSet" priority="3">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="#REF!"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H18">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F18</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:C5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <f>SUM(Table14[Estimate])</f>
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
-      <formula>"Accept"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F14">
-    <cfRule type="iconSet" priority="4">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="#REF!"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <f>SUM(Table145[Estimate])</f>
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H16">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
-      <formula>"Accept"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F16">
-    <cfRule type="iconSet" priority="3">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="#REF!"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H16">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F16</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
@@ -4187,29 +3175,30 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>97</v>
+      <c r="C5" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="C6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
@@ -4218,48 +3207,45 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="C7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="C8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="C9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
@@ -4269,13 +3255,13 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>90</v>
+      <c r="C10" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
@@ -4285,9 +3271,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>162</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
@@ -4295,7 +3279,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
@@ -4303,6 +3287,7 @@
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
     </row>
@@ -4310,13 +3295,14 @@
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table1456[Estimate])</f>
-        <v>4</v>
+        <f>SUM(Table145678910111224[Estimate])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4355,7 +3341,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
+            <xm:f>[1]Information!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F14</xm:sqref>
         </x14:dataValidation>
@@ -4365,12 +3351,752 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f>SUM(Table14567891011121325[Estimate])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H20">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H20">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Information!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f>SUM(Table1456789101112131426[Estimate])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H20">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F20">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H20">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Information!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4387,7 +4113,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4396,7 +4122,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4430,9 +4156,8 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>60</v>
+      </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -4443,17 +4168,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4467,15 +4194,17 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4483,9 +4212,9 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>13</v>
@@ -4499,12 +4228,12 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
@@ -4514,93 +4243,55 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2"/>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="5"/>
       <c r="E11" s="2"/>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table14567[Estimate])</f>
+        <f>SUM(Table1416[Estimate])</f>
         <v>4</v>
       </c>
     </row>
@@ -4609,10 +4300,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4640,7 +4331,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
+            <xm:f>[1]Information!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F14</xm:sqref>
         </x14:dataValidation>
@@ -4650,12 +4341,321 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>SUM(Table14517[Estimate])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H16">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F16">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H16">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Information!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4672,7 +4672,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4681,7 +4681,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4715,17 +4715,17 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4733,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
@@ -4752,23 +4752,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
@@ -4778,12 +4783,14 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
@@ -4794,35 +4801,57 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
@@ -4850,7 +4879,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table145678[Estimate])</f>
+        <f>SUM(Table145618[Estimate])</f>
         <v>4</v>
       </c>
     </row>
@@ -4859,10 +4888,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4890,7 +4919,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
+            <xm:f>[1]Information!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F14</xm:sqref>
         </x14:dataValidation>
@@ -4900,12 +4929,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4922,7 +4951,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4931,7 +4960,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4965,89 +4994,151 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -5073,8 +5164,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table1456789[Estimate])</f>
-        <v>0</v>
+        <f>SUM(Table1456719[Estimate])</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5082,10 +5173,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5113,7 +5204,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
+            <xm:f>[1]Information!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F14</xm:sqref>
         </x14:dataValidation>
@@ -5123,12 +5214,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5143,9 +5234,9 @@
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5154,7 +5245,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5188,26 +5279,44 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -5217,40 +5326,53 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>124</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>125</v>
-      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
     </row>
@@ -5258,9 +5380,6 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
     </row>
@@ -5268,9 +5387,6 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
@@ -5298,8 +5414,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table145678910[Estimate])</f>
-        <v>0</v>
+        <f>SUM(Table14567820[Estimate])</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5307,10 +5423,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5338,7 +5454,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
+            <xm:f>[1]Information!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F14</xm:sqref>
         </x14:dataValidation>
@@ -5348,12 +5464,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5368,9 +5484,9 @@
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5379,7 +5495,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5413,91 +5529,143 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>124</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -5523,7 +5691,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table14567891011[Estimate])</f>
+        <f>SUM(Table145678921[Estimate])</f>
         <v>0</v>
       </c>
     </row>
@@ -5532,10 +5700,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5563,7 +5731,565 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Information!$B$7:$B$10</xm:f>
+            <xm:f>[1]Information!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table14567891022[Estimate])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Information!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table1456789101123[Estimate])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Information!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F14</xm:sqref>
         </x14:dataValidation>

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="Status">Information!$A$15:$A$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1346,7 +1347,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="48">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1379,20 +1380,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1456,20 +1443,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1501,20 +1474,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1575,20 +1534,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1617,20 +1562,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1691,20 +1622,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1733,20 +1650,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1807,20 +1710,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1849,20 +1738,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1910,20 +1785,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1939,20 +1800,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1999,188 +1846,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -2192,7 +1857,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table115" displayName="Table115" ref="A2:H14" totalsRowCount="1" headerRowDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table115" displayName="Table115" ref="A2:H14" totalsRowCount="1" headerRowDxfId="45">
   <autoFilter ref="A2:H13"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -2211,13 +1876,13 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table145678910111224" displayName="Table145678910111224" ref="A2:H15" totalsRowCount="1" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table145678910111224" displayName="Table145678910111224" ref="A2:H15" totalsRowCount="1" headerRowDxfId="12">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
-    <tableColumn id="7" name="Task" dataDxfId="15"/>
-    <tableColumn id="4" name="Description" dataDxfId="14"/>
+    <tableColumn id="7" name="Task" dataDxfId="11"/>
+    <tableColumn id="4" name="Description" dataDxfId="10"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -2230,13 +1895,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table14567891011121325" displayName="Table14567891011121325" ref="A2:H21" totalsRowCount="1" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table14567891011121325" displayName="Table14567891011121325" ref="A2:H21" totalsRowCount="1" headerRowDxfId="7">
   <autoFilter ref="A2:H20"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
-    <tableColumn id="7" name="Task" dataDxfId="8"/>
-    <tableColumn id="4" name="Description" dataDxfId="7"/>
+    <tableColumn id="7" name="Task" dataDxfId="6"/>
+    <tableColumn id="4" name="Description" dataDxfId="5"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -2280,7 +1945,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1416" displayName="Table1416" ref="A2:H15" totalsRowCount="1" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1416" displayName="Table1416" ref="A2:H15" totalsRowCount="1" headerRowDxfId="42">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -2299,7 +1964,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table14517" displayName="Table14517" ref="A2:H17" totalsRowCount="1" headerRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table14517" displayName="Table14517" ref="A2:H17" totalsRowCount="1" headerRowDxfId="39">
   <autoFilter ref="A2:H16"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
@@ -2318,13 +1983,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table145618" displayName="Table145618" ref="A2:H15" totalsRowCount="1" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table145618" displayName="Table145618" ref="A2:H15" totalsRowCount="1" headerRowDxfId="36">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="51"/>
+    <tableColumn id="4" name="Description" dataDxfId="35"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -2337,13 +2002,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table1456719" displayName="Table1456719" ref="A2:H15" totalsRowCount="1" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table1456719" displayName="Table1456719" ref="A2:H15" totalsRowCount="1" headerRowDxfId="32">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="45"/>
+    <tableColumn id="4" name="Description" dataDxfId="31"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -2356,13 +2021,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table14567820" displayName="Table14567820" ref="A2:H15" totalsRowCount="1" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table14567820" displayName="Table14567820" ref="A2:H15" totalsRowCount="1" headerRowDxfId="28">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="39"/>
+    <tableColumn id="4" name="Description" dataDxfId="27"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -2375,13 +2040,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table145678921" displayName="Table145678921" ref="A2:H15" totalsRowCount="1" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table145678921" displayName="Table145678921" ref="A2:H15" totalsRowCount="1" headerRowDxfId="24">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="33"/>
+    <tableColumn id="4" name="Description" dataDxfId="23"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -2394,13 +2059,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table14567891022" displayName="Table14567891022" ref="A2:H15" totalsRowCount="1" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table14567891022" displayName="Table14567891022" ref="A2:H15" totalsRowCount="1" headerRowDxfId="20">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="27"/>
+    <tableColumn id="4" name="Description" dataDxfId="19"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -2413,13 +2078,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table1456789101123" displayName="Table1456789101123" ref="A2:H15" totalsRowCount="1" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table1456789101123" displayName="Table1456789101123" ref="A2:H15" totalsRowCount="1" headerRowDxfId="16">
   <autoFilter ref="A2:H14"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No."/>
     <tableColumn id="3" name="Userstory"/>
     <tableColumn id="7" name="Task"/>
-    <tableColumn id="4" name="Description" dataDxfId="21"/>
+    <tableColumn id="4" name="Description" dataDxfId="15"/>
     <tableColumn id="8" name="Acceptance criteria"/>
     <tableColumn id="2" name="Assign"/>
     <tableColumn id="5" name="Estimate" totalsRowFunction="custom">
@@ -2721,7 +2386,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,35 +2713,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H13">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F13</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3085,7 +2733,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,10 +2958,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3326,28 +2974,11 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3356,7 +2987,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3684,10 +3315,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H20">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3700,28 +3331,11 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H20">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F20</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3729,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,10 +3529,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H20">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3931,28 +3545,11 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H20">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F20</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3960,9 +3557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4096,7 +3691,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,1129 +3887,6 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
         <f>SUM(Table1416[Estimate])</f>
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
-      <formula>"Accept"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F14">
-    <cfRule type="iconSet" priority="3">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="#REF!"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <f>SUM(Table14517[Estimate])</f>
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H16">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
-      <formula>"Accept"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F16">
-    <cfRule type="iconSet" priority="3">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="#REF!"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H16">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F16</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <f>SUM(Table145618[Estimate])</f>
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
-      <formula>"Accept"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F14">
-    <cfRule type="iconSet" priority="3">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="#REF!"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <f>SUM(Table1456719[Estimate])</f>
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
-      <formula>"Accept"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F14">
-    <cfRule type="iconSet" priority="3">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="#REF!"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <f>SUM(Table14567820[Estimate])</f>
         <v>4</v>
       </c>
     </row>
@@ -5439,37 +3911,312 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>SUM(Table14517[Estimate])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H16">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F16">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5486,7 +4233,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5495,7 +4242,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5529,14 +4276,17 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5544,13 +4294,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>13</v>
       </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
@@ -5560,29 +4313,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
@@ -5592,9 +4344,11 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
         <v>16</v>
@@ -5608,28 +4362,29 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
@@ -5640,15 +4395,15 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5656,16 +4411,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -5691,8 +4440,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table145678921[Estimate])</f>
-        <v>0</v>
+        <f>SUM(Table145618[Estimate])</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5716,37 +4465,20 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5761,9 +4493,9 @@
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5772,7 +4504,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5806,14 +4538,17 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5821,13 +4556,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>13</v>
       </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
@@ -5837,15 +4575,15 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5853,7 +4591,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -5869,7 +4607,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
@@ -5885,17 +4623,17 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5903,15 +4641,15 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5919,7 +4657,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
@@ -5927,7 +4665,7 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5935,12 +4673,12 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>
@@ -5970,8 +4708,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table14567891022[Estimate])</f>
-        <v>0</v>
+        <f>SUM(Table1456719[Estimate])</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5979,10 +4717,10 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H14">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"Accept"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5995,37 +4733,20 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6040,9 +4761,9 @@
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -6051,7 +4772,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6085,14 +4806,247 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>99</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table14567820[Estimate])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6100,12 +5054,12 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
@@ -6116,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -6132,12 +5086,12 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -6148,7 +5102,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
@@ -6164,17 +5118,15 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>124</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6182,7 +5134,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
@@ -6190,7 +5142,7 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6198,15 +5150,15 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -6214,7 +5166,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -6222,7 +5174,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6249,7 +5201,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f>SUM(Table1456789101123[Estimate])</f>
+        <f>SUM(Table145678921[Estimate])</f>
         <v>0</v>
       </c>
     </row>
@@ -6274,27 +5226,534 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H14">
-      <formula1>Status</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Information!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table14567891022[Estimate])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>SUM(Table1456789101123[Estimate])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>"Accept"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="iconSet" priority="3">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="#REF!"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="10680" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,11 @@
     <definedName name="Status">Information!$A$15:$A$19</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="176">
   <si>
     <t>No.</t>
   </si>
@@ -39,12 +38,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Chat realtime</t>
-  </si>
-  <si>
-    <t>Create medical profile</t>
   </si>
   <si>
     <t>Report 1</t>
@@ -127,9 +120,6 @@
     <t>Create product backlog, Sprint 1 backlog</t>
   </si>
   <si>
-    <t>Project skeleton</t>
-  </si>
-  <si>
     <t>Create project structure and commit to SVN</t>
   </si>
   <si>
@@ -142,9 +132,6 @@
     <t>Follow this instruction:
 http://tech.pro/tutorial/1491/chat-application-with-signalr-and-aspnet-mvc-4
 Try to understand technology, how to apply it?</t>
-  </si>
-  <si>
-    <t>Chat with video stream</t>
   </si>
   <si>
     <t>Research and work around with WebRTC</t>
@@ -1240,12 +1227,18 @@
       <t>https://trello.com/b/o8gjeeOT/sprint-12</t>
     </r>
   </si>
+  <si>
+    <t>Project structure</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1296,6 +1289,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1317,7 +1317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1343,6 +1343,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2385,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,7 +2405,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2412,7 +2414,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2423,22 +2425,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2446,40 +2448,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2487,114 +2492,114 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
+      <c r="B6" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="B7" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
+      <c r="B8" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
+      <c r="B9" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -2602,23 +2607,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -2626,23 +2631,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -2650,23 +2655,23 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2674,23 +2679,23 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2750,7 +2755,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2759,7 +2764,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2770,22 +2775,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2793,14 +2798,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2808,15 +2813,15 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2824,15 +2829,15 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2840,15 +2845,15 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2856,15 +2861,15 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2872,15 +2877,15 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2888,15 +2893,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2904,15 +2909,15 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3004,7 +3009,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3013,7 +3018,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3024,22 +3029,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3047,14 +3052,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3062,15 +3067,15 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3078,15 +3083,15 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3094,15 +3099,15 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3110,15 +3115,15 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3126,15 +3131,15 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3142,15 +3147,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3158,15 +3163,15 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3174,15 +3179,15 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3190,15 +3195,15 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3206,15 +3211,15 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3222,15 +3227,15 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3238,15 +3243,15 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3254,15 +3259,15 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3270,15 +3275,15 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3286,12 +3291,12 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="2"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3361,7 +3366,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3370,7 +3375,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3381,22 +3386,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3404,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -3413,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
@@ -3423,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -3433,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
@@ -3443,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
@@ -3453,7 +3458,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
@@ -3557,7 +3562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3570,12 +3575,12 @@
   <sheetData>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3583,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3600,16 +3605,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
         <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3617,10 +3622,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3628,10 +3633,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3639,40 +3644,40 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3708,7 +3713,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3717,7 +3722,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3728,22 +3733,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3751,16 +3756,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3768,20 +3773,20 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3789,17 +3794,17 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3807,15 +3812,15 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3823,15 +3828,15 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3941,7 +3946,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3950,7 +3955,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3961,22 +3966,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3984,16 +3989,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4001,18 +4006,18 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4020,15 +4025,15 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4036,15 +4041,15 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4052,15 +4057,15 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4068,31 +4073,31 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4100,11 +4105,11 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4112,15 +4117,15 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4128,14 +4133,14 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4143,14 +4148,14 @@
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4158,12 +4163,12 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4233,7 +4238,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4242,7 +4247,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4253,22 +4258,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4276,17 +4281,17 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4294,18 +4299,18 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4313,15 +4318,15 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -4329,14 +4334,14 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2"/>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4344,17 +4349,17 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4362,14 +4367,14 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4377,17 +4382,17 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4395,15 +4400,15 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4411,7 +4416,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -4495,7 +4500,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4504,7 +4509,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4515,22 +4520,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4538,17 +4543,17 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4556,18 +4561,18 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4575,15 +4580,15 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4591,15 +4596,15 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4607,15 +4612,15 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4623,17 +4628,17 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4641,15 +4646,15 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4657,15 +4662,15 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4673,15 +4678,15 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4763,7 +4768,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4772,7 +4777,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4783,22 +4788,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4806,17 +4811,17 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4824,18 +4829,18 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4843,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
@@ -4853,15 +4858,15 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4869,15 +4874,15 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4885,15 +4890,15 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4996,7 +5001,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5005,7 +5010,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5016,22 +5021,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5039,14 +5044,14 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5054,15 +5059,15 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5070,15 +5075,15 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5086,15 +5091,15 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5102,15 +5107,15 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5118,15 +5123,15 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5134,15 +5139,15 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5150,15 +5155,15 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,15 +5171,15 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5256,7 +5261,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5265,7 +5270,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5276,22 +5281,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5299,14 +5304,14 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5314,15 +5319,15 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5330,15 +5335,15 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5346,15 +5351,15 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5362,15 +5367,15 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5378,17 +5383,17 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5396,15 +5401,15 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5412,15 +5417,15 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5428,15 +5433,15 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5518,7 +5523,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5527,7 +5532,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5538,22 +5543,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5561,14 +5566,14 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5"/>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5576,15 +5581,15 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5592,15 +5597,15 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5608,15 +5613,15 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5624,15 +5629,15 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5640,17 +5645,17 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5658,15 +5663,15 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5674,15 +5679,15 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5690,15 +5695,15 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/Document/SCRUM/Sprint Backlog.xlsx
+++ b/Document/SCRUM/Sprint Backlog.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="198">
   <si>
     <t>No.</t>
   </si>
@@ -1232,6 +1232,72 @@
   </si>
   <si>
     <t>Research</t>
+  </si>
+  <si>
+    <t>[Patient] View medical profile</t>
+  </si>
+  <si>
+    <t>[Patient] Update patient information</t>
+  </si>
+  <si>
+    <t>[Patient] Chat</t>
+  </si>
+  <si>
+    <t>[Patient] Show webcam</t>
+  </si>
+  <si>
+    <t>[Patient] Upload attachment</t>
+  </si>
+  <si>
+    <t>[Patient] View consult history</t>
+  </si>
+  <si>
+    <t>[Patient] Change profile picture</t>
+  </si>
+  <si>
+    <t>[Patient] Rating doctor</t>
+  </si>
+  <si>
+    <t>[Doctor] Create medical profile</t>
+  </si>
+  <si>
+    <t>[Doctor] Create patient</t>
+  </si>
+  <si>
+    <t>[Doctor] Add comment</t>
+  </si>
+  <si>
+    <t>[Doctor] Change picture profile</t>
+  </si>
+  <si>
+    <t>[Admin] Create doctor</t>
+  </si>
+  <si>
+    <t>[Admin] Define medical profile template</t>
+  </si>
+  <si>
+    <t>Report 3</t>
+  </si>
+  <si>
+    <t>Report 4</t>
+  </si>
+  <si>
+    <t>[Admin] Deactive/Active doctor</t>
+  </si>
+  <si>
+    <t>[Admin] Create patient</t>
+  </si>
+  <si>
+    <t>[User] Login</t>
+  </si>
+  <si>
+    <t>[Admin] View medical profile</t>
+  </si>
+  <si>
+    <t>[User] Forget password</t>
+  </si>
+  <si>
+    <t>[User] Register</t>
   </si>
 </sst>
 </file>
@@ -1334,6 +1400,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1343,8 +1411,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2387,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,15 +2470,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
@@ -2511,7 +2577,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C6" t="s">
@@ -2534,7 +2600,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C7" t="s">
@@ -2558,7 +2624,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C8" t="s">
@@ -2582,7 +2648,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C9" t="s">
@@ -2744,7 +2810,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" customWidth="1"/>
@@ -2754,15 +2820,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>162</v>
       </c>
@@ -2812,6 +2878,9 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>194</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>136</v>
       </c>
@@ -2844,6 +2913,9 @@
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>138</v>
       </c>
@@ -2859,6 +2931,9 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>139</v>
@@ -2891,6 +2966,9 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>176</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>115</v>
@@ -3008,15 +3086,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>163</v>
       </c>
@@ -3094,9 +3172,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>147</v>
@@ -3146,6 +3227,9 @@
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>150</v>
       </c>
@@ -3161,6 +3245,9 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>151</v>
@@ -3365,15 +3452,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>167</v>
       </c>
@@ -3574,11 +3661,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="H5" t="s">
         <v>21</v>
       </c>
@@ -3712,15 +3799,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>109</v>
       </c>
@@ -3751,9 +3838,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -3772,6 +3862,9 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
@@ -3789,9 +3882,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
@@ -3811,6 +3907,9 @@
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
@@ -3823,9 +3922,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
@@ -3945,15 +4047,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>110</v>
       </c>
@@ -3984,10 +4086,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="C3" t="s">
         <v>67</v>
       </c>
@@ -4001,9 +4106,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -4020,9 +4128,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -4036,9 +4147,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
@@ -4052,9 +4166,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -4068,9 +4185,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -4085,10 +4205,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="4"/>
@@ -4100,9 +4223,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
@@ -4114,7 +4240,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
@@ -4128,9 +4257,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -4145,7 +4277,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>66</v>
@@ -4160,7 +4295,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
       </c>
       <c r="C14" t="s">
         <v>156</v>
@@ -4172,12 +4310,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -4237,15 +4378,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>113</v>
       </c>
@@ -4280,6 +4421,9 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
       <c r="C3" t="s">
         <v>77</v>
       </c>
@@ -4298,6 +4442,9 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
       <c r="C4" t="s">
         <v>76</v>
       </c>
@@ -4316,6 +4463,9 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
       </c>
       <c r="C5" t="s">
         <v>93</v>
@@ -4333,6 +4483,9 @@
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
       <c r="C6" t="s">
         <v>75</v>
       </c>
@@ -4344,9 +4497,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
@@ -4362,9 +4518,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -4377,9 +4536,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>82</v>
@@ -4399,6 +4561,9 @@
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
       <c r="C10" t="s">
         <v>86</v>
       </c>
@@ -4414,6 +4579,9 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
       </c>
       <c r="C11" t="s">
         <v>158</v>
@@ -4483,13 +4651,13 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" customWidth="1"/>
@@ -4499,15 +4667,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>112</v>
       </c>
@@ -4538,9 +4706,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -4560,6 +4731,9 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
       <c r="C4" t="s">
         <v>88</v>
       </c>
@@ -4575,9 +4749,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
@@ -4591,9 +4768,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -4611,6 +4791,9 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
@@ -4623,9 +4806,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -4644,6 +4830,9 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
@@ -4657,9 +4846,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
@@ -4767,15 +4959,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>111</v>
       </c>
@@ -4806,9 +4998,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="C3" t="s">
         <v>95</v>
@@ -4824,9 +5019,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
@@ -4843,19 +5041,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="C5" t="s">
         <v>97</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -4869,9 +5073,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -4984,13 +5191,13 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" customWidth="1"/>
@@ -5000,15 +5207,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>114</v>
       </c>
@@ -5039,10 +5246,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="C3" t="s">
         <v>101</v>
       </c>
@@ -5054,9 +5264,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>102</v>
@@ -5070,9 +5283,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -5086,9 +5302,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -5102,9 +5321,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
@@ -5122,6 +5344,9 @@
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
       <c r="C8" t="s">
         <v>106</v>
       </c>
@@ -5134,9 +5359,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>107</v>
@@ -5150,9 +5378,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="C10" t="s">
         <v>97</v>
@@ -5169,6 +5400,9 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
@@ -5244,13 +5478,13 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" customWidth="1"/>
@@ -5260,15 +5494,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>160</v>
       </c>
@@ -5303,6 +5537,9 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
       <c r="C3" t="s">
         <v>115</v>
       </c>
@@ -5318,6 +5555,9 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
       <c r="C4" t="s">
         <v>108</v>
       </c>
@@ -5334,6 +5574,9 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
       <c r="C5" t="s">
         <v>116</v>
       </c>
@@ -5350,6 +5593,9 @@
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
       <c r="C6" t="s">
         <v>117</v>
       </c>
@@ -5362,9 +5608,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="C7" t="s">
         <v>118</v>
@@ -5378,9 +5627,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="C8" t="s">
         <v>119</v>
@@ -5399,6 +5651,9 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
       </c>
       <c r="C9" t="s">
         <v>121</v>
@@ -5506,7 +5761,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5522,15 +5777,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="2" t="s">
         <v>161</v>
       </c>
@@ -5565,6 +5820,9 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="C3" t="s">
         <v>127</v>
       </c>
@@ -5576,9 +5834,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="C4" t="s">
         <v>128</v>
@@ -5592,9 +5853,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="C5" t="s">
         <v>129</v>
@@ -5608,9 +5872,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>130</v>
@@ -5627,6 +5894,9 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
       </c>
       <c r="C7" t="s">
         <v>131</v>
@@ -5640,9 +5910,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="C8" t="s">
         <v>132</v>
@@ -5658,9 +5931,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
@@ -5678,6 +5954,9 @@
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
       <c r="C10" t="s">
         <v>133</v>
       </c>
@@ -5690,9 +5969,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="C11" t="s">
         <v>134</v>
